--- a/Testowanie zooplus.pl/zooplus.xlsx
+++ b/Testowanie zooplus.pl/zooplus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a19528353e4f8c7c/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a19528353e4f8c7c/Pulpit/Repo/Testowanie/Testowanie zooplus.pl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F829FA-9382-4D9B-85BD-DCE87E2B803D}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C877A88-944D-4782-8F3F-778BCDEC39B4}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3855" windowWidth="28800" windowHeight="15345" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konto" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Opis scenariusza testowego</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>Uzytkownik zostaje wylogowany</t>
+  </si>
+  <si>
+    <t>Dodawanie produktu do koszyka</t>
+  </si>
+  <si>
+    <t>Cosma Original Snackies</t>
+  </si>
+  <si>
+    <t>1. Ze strony głównej dodaj do koszyka  "plusem" dostepny, losowy produkt w ilości 1.</t>
+  </si>
+  <si>
+    <t>2. Przejdź do koszyka i zweryfikuje, czy produkt się w nim znajduje.</t>
+  </si>
+  <si>
+    <t>Produkt znajduję się w koszyku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyszukiwanie produktu </t>
+  </si>
+  <si>
+    <t>kangur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybrany produkt zostaje dodany do koszyka zakupowego. </t>
+  </si>
+  <si>
+    <t>1. Wpisz w pole wyszukiwania słowo kangur</t>
+  </si>
+  <si>
+    <t>2. Zweryfikuj, czy wyświetlone produkty zawierają słowo "kangur" w opisie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System zwraca produkty, które mają wyszukiwane słowo w opisie produtu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyświetlone produkty mają słowo "kangur" w opisie. </t>
   </si>
 </sst>
 </file>
@@ -456,7 +492,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,127 +512,132 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,6 +662,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,7 +969,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,296 +1010,328 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="49"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="41" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -1297,30 +1374,42 @@
       <c r="H26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="35">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{A9E6E15E-8C46-47FB-8D4D-5EF32666223C}"/>

--- a/Testowanie zooplus.pl/zooplus.xlsx
+++ b/Testowanie zooplus.pl/zooplus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a19528353e4f8c7c/Pulpit/Repo/Testowanie/Testowanie zooplus.pl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C877A88-944D-4782-8F3F-778BCDEC39B4}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D7782D-3D90-4BD0-8E20-524E1BDBF186}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Opis scenariusza testowego</t>
   </si>
@@ -199,13 +199,91 @@
   </si>
   <si>
     <t xml:space="preserve">Wyświetlone produkty mają słowo "kangur" w opisie. </t>
+  </si>
+  <si>
+    <t>DARMOWA-DOSTAWA</t>
+  </si>
+  <si>
+    <t>2. Przejdź do koszyka</t>
+  </si>
+  <si>
+    <t>3. Kliknij "Wpisz kod kuponu" i wpisz kod "DARMOWA-DOSTAWA"</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik z użyciem danych: 235689klasa@gmail.com;  A1@a2222. Użytkownik nie dokonał wcześniej żadnych zakupów.</t>
+  </si>
+  <si>
+    <t>1. Dodaj do koszyka losowy, dostepny produkt, o wartości poniżej 99 zł.</t>
+  </si>
+  <si>
+    <t>Po wpisaniu kodu rabatowego, koszt dostawy wynosi 0 zł.</t>
+  </si>
+  <si>
+    <t>Kod rabatowy dla nowego użytkownika, na darmową dostawę działa poprawnie. Koszt dostawy wynosi 0 zł, przy zakupie przedmiotu w kwocie 34,80 zł.</t>
+  </si>
+  <si>
+    <t>4. Kliknij "Do kasy" i zweryfikuj, czy dostawa jest za 0 zł.</t>
+  </si>
+  <si>
+    <t>1. Kliknij na "Twój koszyk", a następnie "Do kasy".</t>
+  </si>
+  <si>
+    <t>2. Wybierz sposób płatności "Szybkie płatności/BLIK"</t>
+  </si>
+  <si>
+    <t>3. Wybierz opcje dostawy - Dostawa do Inpost Paczkomat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Zweryfikuj, czy zakup został sfinalizowany </t>
+  </si>
+  <si>
+    <t>4. Kliknij "Wyślij zamówienie"</t>
+  </si>
+  <si>
+    <t>Finalizacja zakupu z użyciem BLIK i dostawy za pomocą Inpost Paczkomatu</t>
+  </si>
+  <si>
+    <t>5. Dokończ płatność BLIK i kliknij "Wróć do sklepu"</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik z użyciem danych: 235689klasa@gmail.com;  A1@a2222. Posiadający w koszyku dowolony, dostępny produkt o wartości powyżej 8 zł.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po dodaniu do koszyka wybranego produktu, o wartości powyżej 8 zł, system pozwala na zakup, po wybraniu sposobu płatności oraz opcji dostawy. </t>
+  </si>
+  <si>
+    <t>Nastapiła finalizacja procesu zakupu. Zamówienie zostało potwierdzone.</t>
+  </si>
+  <si>
+    <t>1. Wejdź na główną stronę https://www.zooplus.pl/</t>
+  </si>
+  <si>
+    <t>Wild Freedom, 1 x 200 g</t>
+  </si>
+  <si>
+    <t>Użycie kodu rabatowego na darmową dostawę przy pierwszym zamówieniu.</t>
+  </si>
+  <si>
+    <t>Użycie kodu rabatowego na darmową dostawę przy kolejnym zamówieniu.</t>
+  </si>
+  <si>
+    <t>Przejście do produktu z głównej strony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Kliknij na dowolny produkt z kategorii "Polecane produkty" </t>
+  </si>
+  <si>
+    <t>Możliwe przejście na produkt ze strony głównej.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po kliknięciu na wybrany produkt ze strony głównej, następuję prawidłowe przejście. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +312,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -330,19 +420,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -484,6 +561,135 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -492,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,7 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,131 +718,185 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -965,17 +1224,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4522135C-8F60-405C-A9E9-8A1E31746F3D}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C17"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
@@ -1002,385 +1262,556 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="51"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="51"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="51"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="52"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="17" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="54"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="69"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="69"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="72"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="75"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="70"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="71"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="57"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="57"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F20:F21"/>
+  <mergeCells count="55">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="F18:F19"/>
@@ -1397,19 +1828,12 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{A9E6E15E-8C46-47FB-8D4D-5EF32666223C}"/>

--- a/Testowanie zooplus.pl/zooplus.xlsx
+++ b/Testowanie zooplus.pl/zooplus.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a19528353e4f8c7c/Pulpit/Repo/Testowanie/Testowanie zooplus.pl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D7782D-3D90-4BD0-8E20-524E1BDBF186}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E69333-2598-4D82-A609-6D84554CC73B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konto" sheetId="1" r:id="rId1"/>
-    <sheet name="Zamówienia" sheetId="2" r:id="rId2"/>
+    <sheet name="Zamówienia" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Opis scenariusza testowego</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Użycie kodu rabatowego na darmową dostawę przy pierwszym zamówieniu.</t>
   </si>
   <si>
-    <t>Użycie kodu rabatowego na darmową dostawę przy kolejnym zamówieniu.</t>
-  </si>
-  <si>
     <t>Przejście do produktu z głównej strony</t>
   </si>
   <si>
@@ -277,6 +274,36 @@
   </si>
   <si>
     <t xml:space="preserve">Po kliknięciu na wybrany produkt ze strony głównej, następuję prawidłowe przejście. </t>
+  </si>
+  <si>
+    <t>1. Wejdź na losowy produkt na zooplus.pl</t>
+  </si>
+  <si>
+    <t>2. Kliknij "Oceń produkt"</t>
+  </si>
+  <si>
+    <t>Catessy mleko dla kota</t>
+  </si>
+  <si>
+    <t>3. Wybierz ocenę produktu na 5 gwiazdek, uzupełnij wymagane pola "Tytuł artykułu", "Twój komenatrz", "Imię", "Twój adres e-mail"</t>
+  </si>
+  <si>
+    <t>4. Zaznacz akceptację regulaminu.</t>
+  </si>
+  <si>
+    <t>5. Kliknik "potwierdź"</t>
+  </si>
+  <si>
+    <t>Po uzupełnieniu wymaganych pól i kliknięciu "Potwierdź" następuje komunikat "Dziękujemy za Twoją opinię!".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po uzupełnieniu wymaganych pól, istnieje możliwość potwierdzenia I wysyłki opinii. </t>
+  </si>
+  <si>
+    <t>Użytkownik nie jest zalogowany</t>
+  </si>
+  <si>
+    <t>Dodanie opinii o produkcie przez niezalogowanego użytkownika</t>
   </si>
 </sst>
 </file>
@@ -345,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -632,36 +659,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -698,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -737,32 +734,101 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,15 +863,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -821,82 +878,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1224,26 +1251,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4522135C-8F60-405C-A9E9-8A1E31746F3D}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1269,12 +1296,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1283,542 +1310,239 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="39"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="39"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="39"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="39"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="64"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="40"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="46" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="66" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="48" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="39"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="40"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="69"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="69"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="69"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="75"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="71"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
+  <mergeCells count="24">
     <mergeCell ref="H2:H7"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
@@ -1828,12 +1552,20 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{A9E6E15E-8C46-47FB-8D4D-5EF32666223C}"/>
@@ -1845,15 +1577,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4823749-323E-4943-84A0-25D0FF6BE61E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39306246-C554-4C65-8935-DFE4471CD1BD}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="68"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="68"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="68"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="68"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testowanie zooplus.pl/zooplus.xlsx
+++ b/Testowanie zooplus.pl/zooplus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a19528353e4f8c7c/Pulpit/Repo/Testowanie/Testowanie zooplus.pl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E69333-2598-4D82-A609-6D84554CC73B}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{2BF6EF48-9CD8-45A0-8351-71DE06C70D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46860AAF-EAE4-4B9A-9FBF-C7B489346AB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
+    <workbookView xWindow="6405" yWindow="15810" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{6AA2485A-BD93-4652-8BF7-DF2FA6B67BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konto" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>Opis scenariusza testowego</t>
   </si>
@@ -304,13 +304,106 @@
   </si>
   <si>
     <t>Dodanie opinii o produkcie przez niezalogowanego użytkownika</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik z użyciem danych: 235689klasa@gmail.com;  A1@a2222. Użytkownik dokonał wcześniej jednego zamówienia.</t>
+  </si>
+  <si>
+    <t>Wild Freedom Instinctive, 6 x 70 g</t>
+  </si>
+  <si>
+    <t>Po wpisaniu kodu rabatowego, system go nie akceptuję, wyświetlając komunikat "Kupon jest ważny tylko dla nowych klientów".</t>
+  </si>
+  <si>
+    <t>Użycie specjalnego kodu rabatowego dla nowych użytkowników, na darmową dostawę przy kolejnym zamówieniu.</t>
+  </si>
+  <si>
+    <t>4. Zweryfikuj, czy kod rabatowy zadziała, rabatując koszt dostawy do 0 zł.</t>
+  </si>
+  <si>
+    <t>System nie przyjmuje kodu rabatowego dedykowanego dla nowych użytkowników, przy kolejnym zamówieniu.</t>
+  </si>
+  <si>
+    <t>Zmiana hasła</t>
+  </si>
+  <si>
+    <t>2. Kliknij "Moje dane" a następnie "Zmień hasło"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Kliknij "Aktualizuj" </t>
+  </si>
+  <si>
+    <t>3. Wprowadź dotychczasowe hasło, a następnie nowe, używając minimum 8 znaków, dużych I małych liter, cyfry lub znaku specjalnego</t>
+  </si>
+  <si>
+    <t>System po wprowadzeniu dotychczasowego hasła, oraz nowego według przyjętego wzorca pozwala na zmianę.</t>
+  </si>
+  <si>
+    <t>Hasło zostaje zmienione. Użytkownik może się zalogować poprzez nowe hasło.</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>Z01</t>
+  </si>
+  <si>
+    <t>Z02</t>
+  </si>
+  <si>
+    <t>Z03</t>
+  </si>
+  <si>
+    <t>Z04</t>
+  </si>
+  <si>
+    <t>Z05</t>
+  </si>
+  <si>
+    <t>Z06</t>
+  </si>
+  <si>
+    <t>Z07</t>
+  </si>
+  <si>
+    <t>Po otwarciu strony w nowej zakładce, system zapamiętuje ostatnio dodane produkty w koszyku.</t>
+  </si>
+  <si>
+    <t>Żwirek dla kota Nullodor Fir Wood</t>
+  </si>
+  <si>
+    <t>Po otwarciu sklepu w nowej karcie, w koszyku znajduję się "Żwirek dla kota Nullodor Fir Wood".</t>
+  </si>
+  <si>
+    <t>Z08</t>
+  </si>
+  <si>
+    <t>Współdzielenie sesji dla koszyka zakupowego.</t>
+  </si>
+  <si>
+    <t>1. Dodaj do koszyka dowolny dostepny produkt.</t>
+  </si>
+  <si>
+    <t>3. Otwórz stronę https://www.zooplus.pl/ w nowej karcie i zweryfikuj zawartość koszyka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +444,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -372,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -689,13 +789,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -737,200 +868,269 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{7A958901-3DAD-49D8-AE63-92DEB3C39011}"/>
+    <cellStyle name="Normalny 3" xfId="3" xr:uid="{7F146FCE-14E5-41AC-B382-E51422CDEC03}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,26 +1451,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4522135C-8F60-405C-A9E9-8A1E31746F3D}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="69.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1296,9 +1496,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -1310,31 +1512,31 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="58"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="33"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="58"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="33"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -1342,13 +1544,13 @@
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="58"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="33"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -1356,25 +1558,25 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="58"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="33"/>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="53"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65"/>
-      <c r="B7" s="59"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="34"/>
       <c r="D7" s="12" t="s">
         <v>16</v>
@@ -1382,49 +1584,53 @@
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="23" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="67"/>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="49" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="32"/>
@@ -1432,31 +1638,31 @@
         <v>23</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="33"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="50"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33"/>
       <c r="D12" s="5" t="s">
         <v>31</v>
@@ -1464,25 +1670,25 @@
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="50"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="33"/>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="50"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
         <v>33</v>
@@ -1490,73 +1696,128 @@
       <c r="E14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="34"/>
       <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="43" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="15" t="s">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="82"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
+  <mergeCells count="30">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="F16:F17"/>
@@ -1564,8 +1825,21 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C10:C15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{A9E6E15E-8C46-47FB-8D4D-5EF32666223C}"/>
@@ -1578,26 +1852,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39306246-C554-4C65-8935-DFE4471CD1BD}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C22"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="69.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1623,12 +1897,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -1637,34 +1913,36 @@
       <c r="E2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+    <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1673,301 +1951,430 @@
       <c r="E4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="29"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="68" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="35"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="36"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="68" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="20" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="77" t="s">
+      <c r="F17" s="70"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="68"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="73" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="72" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="68"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="73" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="68"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="68"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="83"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="83"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="91"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="103"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="104"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="B18:B22"/>
+  <mergeCells count="49">
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A16:A17"/>
@@ -1982,24 +2389,11 @@
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="B18:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
